--- a/xlsx/猶他州_intext.xlsx
+++ b/xlsx/猶他州_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美國</t>
   </si>
   <si>
-    <t>政策_政策_美國_猶他州</t>
+    <t>体育运动_体育运动_袋棍球_猶他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E%E5%B7%9E%E6%97%97</t>
@@ -1964,7 +1964,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -2457,7 +2457,7 @@
         <v>24</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
